--- a/apartment-properties.xlsx
+++ b/apartment-properties.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Icon Casa 2, Al Rashidiya 3, Al Rashidiya, Ajman</t>
+          <t>Al Majaz 2, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>52,000 AED/year</t>
+          <t>48,000 AED/year</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,500 sqft</t>
+          <t>2,500 sqft</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-ajman-al-rashidiya-al-rashidiya-3-the-icon-casa-2-13076369.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-2-13153779.html</t>
         </is>
       </c>
     </row>
@@ -485,156 +485,156 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>54,999 AED/year</t>
+          <t>50,999 AED/year</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3,500 sqft</t>
+          <t>2,200 sqft</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-qasimia-al-mahatta-13133270.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-qasimia-al-mahatta-12853729.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Al Wahda, Sharjah</t>
+          <t>Al Mahatta, Al Qasimia, Sharjah</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>59,999 AED/year</t>
+          <t>54,999 AED/year</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3,600 sqft</t>
+          <t>3,500 sqft</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-wahda-13164090.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-qasimia-al-mahatta-13133270.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Al Ameriya, Al Jimi, Al Ain</t>
+          <t>Al Mahatta, Al Qasimia, Sharjah</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>60,000 AED/year</t>
+          <t>55,000 AED/year</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2,400 sqft</t>
+          <t>2,200 sqft</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-al-ain-al-jimi-al-ameriya-13166603.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-qasimia-al-mahatta-12919247.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Al Ameriya, Al Jimi, Al Ain</t>
+          <t>Al Wahda, Sharjah</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>60,000 AED/year</t>
+          <t>59,999 AED/year</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2,000 sqft</t>
+          <t>3,600 sqft</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-al-ain-al-jimi-al-ameriya-13162313.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-wahda-13164090.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Al Mamzar, Al Mamzar - Sharjah, Sharjah</t>
+          <t>Al Majaz 3, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>82,000 AED/year</t>
+          <t>79,999 AED/year</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2,600 sqft</t>
+          <t>3,000 sqft</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-mamzar-sharjah-al-mamzar-13027011.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-13013436.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Khalifa Residential Complex B, Tourist Club Area, Abu Dhabi</t>
+          <t>Al Mamzar, Al Mamzar - Sharjah, Sharjah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>90,000 AED/year</t>
+          <t>82,000 AED/year</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2,098 sqft</t>
+          <t>2,600 sqft</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-tourist-club-area-khalifa-residential-complex-b-13167485.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-mamzar-sharjah-al-mamzar-13027011.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saeed Al Alami Building, Al Taawun, Sharjah</t>
+          <t>Al Mamzar, Al Mamzar - Sharjah, Sharjah</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>90,000 AED/year</t>
+          <t>85,000 AED/year</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3,000 sqft</t>
+          <t>2,600 sqft</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-saeed-al-alami-building-12550137.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-mamzar-sharjah-al-mamzar-13027014.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Al Salam Tower, Tourist Club Area, Abu Dhabi</t>
+          <t>Saeed Al Alami Building, Al Taawun, Sharjah</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -644,90 +644,90 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1,685 sqft</t>
+          <t>3,000 sqft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-tourist-club-area-al-salam-tower-13153386.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-saeed-al-alami-building-12550137.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Al Maha Tower, Al Majaz, Sharjah</t>
+          <t>Sarh Al Emarat Tower, Al Majaz 3, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>95,000 AED/year</t>
+          <t>90,000 AED/year</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3,000 sqft</t>
+          <t>2,034 sqft</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-maha-tower-12822529.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-sarh-al-emarat-tower-13042633.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Khalifa City A, Khalifa City, Abu Dhabi</t>
+          <t>Majestic Tower, Al Taawun Street, Al Taawun, Sharjah</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>98,000 AED/year</t>
+          <t>94,999 AED/year</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2,500 sqft</t>
+          <t>3,000 sqft</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-khalifa-city-khalifa-city-a-13092584.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-al-taawun-street-majestic-tower-12696062.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Al Manaseer, Abu Dhabi</t>
+          <t>Al Maha Tower, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100,000 AED/year</t>
+          <t>95,000 AED/year</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,500 sqft</t>
+          <t>3,000 sqft</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-al-manaseer-13127673.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-maha-tower-12822529.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Al Najda Street, Abu Dhabi</t>
+          <t>Al Majaz 3, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>110,000 AED/year</t>
+          <t>95,000 AED/year</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,73 +737,73 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-al-najda-street-13093988.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-10910376.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tourist Club Area, Abu Dhabi</t>
+          <t>Al Mirgab, Al Heerah, Sharjah</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>110,000 AED/year</t>
+          <t>105,000 AED/year</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2,852 sqft</t>
+          <t>5,000 sqft</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-tourist-club-area-12030060.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-heerah-al-mirgab-13150159.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>City Center Building, Hamdan Street, Abu Dhabi</t>
+          <t>Majestic Tower, Al Taawun Street, Al Taawun, Sharjah</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>112,000 AED/year</t>
+          <t>110,000 AED/year</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2,250 sqft</t>
+          <t>3,500 sqft</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-hamdan-street-city-center-building-12598045.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-al-taawun-street-majestic-tower-12762393.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Al Maha Tower, Al Majaz, Sharjah</t>
+          <t>Al Taawun Street, Al Taawun, Sharjah</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>115,000 AED/year</t>
+          <t>110,000 AED/year</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3,000 sqft</t>
+          <t>3,990 sqft</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-maha-tower-11951702.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-al-taawun-street-12866617.html</t>
         </is>
       </c>
     </row>
@@ -854,110 +854,88 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Al Bateen Complex, Al Bateen, Abu Dhabi</t>
+          <t>Al Majaz 3, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>140,000 AED/year</t>
+          <t>120,000 AED/year</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3,200 sqft</t>
+          <t>3,500 sqft</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-al-bateen-al-bateen-complex-13138973.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-12500554.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Greenview, EMAAR South, Dubai South (Dubai World Central), Dubai</t>
+          <t>Al Majaz 3, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>140,000 AED/year</t>
+          <t>120,000 AED/year</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2,540 sqft</t>
+          <t>3,555 sqft</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-south-dubai-world-central-emaar-south-greenview-12916545.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-13149354.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Al Bateen Plaza, Al Bateen, Abu Dhabi</t>
+          <t>Al Maha Tower, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>147,000 AED/year</t>
+          <t>125,000 AED/year</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2,600 sqft</t>
+          <t>3,000 sqft</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-al-bateen-al-bateen-plaza-13054209.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-maha-tower-11951702.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Burj Al Yaqout, Danet Abu Dhabi, Abu Dhabi</t>
+          <t>Greenview, EMAAR South, Dubai South (Dubai World Central), Dubai</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>150,000 AED/year</t>
+          <t>140,000 AED/year</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2,800 sqft</t>
+          <t>2,540 sqft</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-danet-abu-dhabi-burj-al-yaqout-13136960.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Muroor Area, Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>150,000 AED/year</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3,282 sqft</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-abu-dhabi-muroor-area-13163958.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-south-dubai-world-central-emaar-south-greenview-12916545.html</t>
         </is>
       </c>
     </row>

--- a/apartment-properties.xlsx
+++ b/apartment-properties.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,122 +458,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Al Majaz 2, Al Majaz, Sharjah</t>
+          <t>Al Mahatta, Al Qasimia, Sharjah</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>48,000 AED/year</t>
+          <t>54,999 AED/year</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2,500 sqft</t>
+          <t>3,500 sqft</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-2-13153779.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-qasimia-al-mahatta-13133270.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Al Mahatta, Al Qasimia, Sharjah</t>
+          <t>Al Wahda, Sharjah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>50,999 AED/year</t>
+          <t>59,999 AED/year</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2,200 sqft</t>
+          <t>3,600 sqft</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-qasimia-al-mahatta-12853729.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-wahda-13164090.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Al Mahatta, Al Qasimia, Sharjah</t>
+          <t>Al Mamzar, Al Mamzar - Sharjah, Sharjah</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>54,999 AED/year</t>
+          <t>82,000 AED/year</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3,500 sqft</t>
+          <t>2,600 sqft</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-qasimia-al-mahatta-13133270.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-mamzar-sharjah-al-mamzar-13027011.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Al Mahatta, Al Qasimia, Sharjah</t>
+          <t>Al Mamzar, Al Mamzar - Sharjah, Sharjah</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>55,000 AED/year</t>
+          <t>85,000 AED/year</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2,200 sqft</t>
+          <t>2,600 sqft</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-qasimia-al-mahatta-12919247.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-mamzar-sharjah-al-mamzar-13027014.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Al Wahda, Sharjah</t>
+          <t>Saeed Al Alami Building, Al Taawun, Sharjah</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>59,999 AED/year</t>
+          <t>90,000 AED/year</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3,600 sqft</t>
+          <t>3,000 sqft</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-wahda-13164090.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-saeed-al-alami-building-12550137.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Al Majaz 3, Al Majaz, Sharjah</t>
+          <t>Al Maha Tower, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>79,999 AED/year</t>
+          <t>95,000 AED/year</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,359 +583,1151 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-13013436.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-maha-tower-12822529.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Al Mamzar, Al Mamzar - Sharjah, Sharjah</t>
+          <t>Al Majaz 3, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>82,000 AED/year</t>
+          <t>115,000 AED/year</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2,600 sqft</t>
+          <t>3,200 sqft</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-mamzar-sharjah-al-mamzar-13027011.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-11998377.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Al Mamzar, Al Mamzar - Sharjah, Sharjah</t>
+          <t>Al Khan Corniche, Al Khan, Sharjah</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>85,000 AED/year</t>
+          <t>120,000 AED/year</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2,600 sqft</t>
+          <t>3,510 sqft</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-mamzar-sharjah-al-mamzar-13027014.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-khan-al-khan-corniche-12803583.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saeed Al Alami Building, Al Taawun, Sharjah</t>
+          <t>Al Majaz 3, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>90,000 AED/year</t>
+          <t>120,000 AED/year</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3,000 sqft</t>
+          <t>3,500 sqft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-saeed-al-alami-building-12550137.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-12500554.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sarh Al Emarat Tower, Al Majaz 3, Al Majaz, Sharjah</t>
+          <t>Al Maha Tower, Al Majaz, Sharjah</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>90,000 AED/year</t>
+          <t>125,000 AED/year</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2,034 sqft</t>
+          <t>3,000 sqft</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-sarh-al-emarat-tower-13042633.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-maha-tower-11951702.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Majestic Tower, Al Taawun Street, Al Taawun, Sharjah</t>
+          <t>Greenview, EMAAR South, Dubai South (Dubai World Central), Dubai</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>94,999 AED/year</t>
+          <t>140,000 AED/year</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3,000 sqft</t>
+          <t>2,540 sqft</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-al-taawun-street-majestic-tower-12696062.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-south-dubai-world-central-emaar-south-greenview-12916545.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Al Maha Tower, Al Majaz, Sharjah</t>
+          <t>Al Anwar Tower, Al Khan Lagoon, Al Khan, Sharjah</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>95,000 AED/year</t>
+          <t>160,000 AED/year</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,000 sqft</t>
+          <t>3,200 sqft</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-maha-tower-12822529.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-khan-al-khan-lagoon-al-anwar-tower-13075704.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Al Majaz 3, Al Majaz, Sharjah</t>
+          <t>Al Anwar Tower, Al Khan Lagoon, Al Khan, Sharjah</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>95,000 AED/year</t>
+          <t>165,000 AED/year</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2,500 sqft</t>
+          <t>3,200 sqft</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-10910376.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-khan-al-khan-lagoon-al-anwar-tower-12988888.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Al Mirgab, Al Heerah, Sharjah</t>
+          <t>Hayat Boulevard-2B, Hayat Boulevard, Town Square, Dubai</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>105,000 AED/year</t>
+          <t>174,999 AED/year</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5,000 sqft</t>
+          <t>2,316 sqft</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-heerah-al-mirgab-13150159.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-town-square-hayat-boulevard-hayat-boulevard-2b-12213317.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Majestic Tower, Al Taawun Street, Al Taawun, Sharjah</t>
+          <t>Golden Sands 9, Mankhool, Bur Dubai, Dubai</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>110,000 AED/year</t>
+          <t>180,000 AED/year</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3,500 sqft</t>
+          <t>2,284 sqft</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-al-taawun-street-majestic-tower-12762393.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-bur-dubai-mankhool-golden-sands-9-12727110.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Al Taawun Street, Al Taawun, Sharjah</t>
+          <t>Al Khan Corniche, Al Khan, Sharjah</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>110,000 AED/year</t>
+          <t>220,000 AED/year</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3,990 sqft</t>
+          <t>4,520 sqft</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-taawun-al-taawun-street-12866617.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-khan-al-khan-corniche-13068436.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Al Majaz 3, Al Majaz, Sharjah</t>
+          <t>Camelia 1, Camelia, Arabian Ranches 2, Dubai</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>115,000 AED/year</t>
+          <t>220,000 AED/year</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,200 sqft</t>
+          <t>2,300 sqft</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-11998377.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-arabian-ranches-2-camelia-camelia-1-12953931.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Al Khan Corniche, Al Khan, Sharjah</t>
+          <t>Al Jaz 3, Al Jaz, Greens, Dubai</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>120,000 AED/year</t>
+          <t>220,000 AED/year</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,510 sqft</t>
+          <t>2,032 sqft</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-khan-al-khan-corniche-12803583.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-greens-al-jaz-al-jaz-3-12804187.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Al Majaz 3, Al Majaz, Sharjah</t>
+          <t>Golf Links, EMAAR South, Dubai South (Dubai World Central), Dubai</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>120,000 AED/year</t>
+          <t>220,000 AED/year</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3,500 sqft</t>
+          <t>1,990 sqft</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-12500554.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-south-dubai-world-central-emaar-south-golf-links-13071041.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Al Majaz 3, Al Majaz, Sharjah</t>
+          <t>La Rosa 3, Villanova, Dubai Land, Dubai</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>120,000 AED/year</t>
+          <t>220,000 AED/year</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3,555 sqft</t>
+          <t>2,852 sqft</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-majaz-3-13149354.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-land-villanova-la-rosa-3-10502242.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Al Maha Tower, Al Majaz, Sharjah</t>
+          <t>Horizon Tower, Dubai Marina, Dubai</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>125,000 AED/year</t>
+          <t>229,999 AED/year</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3,000 sqft</t>
+          <t>2,408 sqft</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-sharjah-al-majaz-al-maha-tower-11951702.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-horizon-tower-13075945.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Greenview, EMAAR South, Dubai South (Dubai World Central), Dubai</t>
+          <t>Al Jaz 2, Al Jaz, Greens, Dubai</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>140,000 AED/year</t>
+          <t>230,000 AED/year</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2,540 sqft</t>
+          <t>2,475 sqft</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-south-dubai-world-central-emaar-south-greenview-12916545.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-greens-al-jaz-al-jaz-2-12463781.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Elite Business Bay Residence, Business Bay, Dubai</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>250,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2,189 sqft</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-business-bay-elite-business-bay-residence-13167711.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Horizon Tower, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>269,999 AED/year</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2,408 sqft</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-horizon-tower-13119255.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Marina Crown, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>280,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3,023 sqft</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-marina-crown-13141964.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Al Goze Building, Al Quoz 1, Al Quoz, Dubai</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>280,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10,000 sqft</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-al-quoz-al-quoz-1-al-goze-building-12992079.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sadaf 7, Sadaf, Jumeirah Beach Residence, Dubai</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>285,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3,600 sqft</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-jumeirah-beach-residence-sadaf-sadaf-7-11919557.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Elite Residence, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>295,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3,173 sqft</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-elite-residence-13160125.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Marina Crown, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>310,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3,022 sqft</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-marina-crown-12926709.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Al Mesk Tower, Emaar 6 Towers, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>310,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2,901 sqft</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-emaar-6-towers-al-mesk-tower-13091636.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Al Badia Residences, Dubai Festival City, Dubai</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>310,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3,112 sqft</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-festival-city-al-badia-residences-13041794.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Horizon Tower, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>320,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4,899 sqft</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-horizon-tower-13086824.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Horizon Tower, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>320,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2,450 sqft</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-horizon-tower-12517917.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Horizon Tower, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>320,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2,450 sqft</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-horizon-tower-13059911.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ocean Heights, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>399,999 AED/year</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4,350 sqft</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-ocean-heights-13034886.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Murooj Al Furjan, Al Furjan, Dubai</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>420,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>6,657 sqft</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-al-furjan-murooj-al-furjan-13153911.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Elite Residence, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>450,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3,212 sqft</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-elite-residence-12571050.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Al Sarrood, Shoreline Apartments, Palm Jumeirah, Dubai</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>450,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4,838 sqft</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-palm-jumeirah-shoreline-apartments-al-sarrood-12954700.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FIVE at Jumeirah Village Circle, Jumeirah Village Circle, Dubai</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>480,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5,510 sqft</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-jumeirah-village-circle-five-at-jumeirah-village-circle-12965738.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Al Mesk Tower, Emaar 6 Towers, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>500,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2,900 sqft</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-emaar-6-towers-al-mesk-tower-12626123.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Lamtara 2, Madinat Jumeirah Living, Umm Suqeim, Dubai</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>500,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2,734 sqft</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-umm-suqeim-madinat-jumeirah-living-lamtara-2-12861637.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Princess Tower, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>500,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3,179 sqft</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-princess-tower-12575902.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Building 4B, City Walk, Dubai</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>590,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3,169 sqft</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-city-walk-building-4b-13055167.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Address Harbour Point Tower 1, Address Harbour Point, Dubai Creek Harbour (The Lagoons), Dubai</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>725,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2,845 sqft</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-creek-harbour-the-lagoons-address-harbour-point-address-harbour-point-tower-1-13164785.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>The Residences at Caesars Resort, Caesars Bluewaters Dubai, Bluewaters, Dubai</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>800,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2,400 sqft</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-bluewaters-caesars-bluewaters-dubai-the-residences-at-caesars-resort-12930478.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ashjar, Al Barari, Dubai</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>800,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6,336 sqft</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-al-barari-ashjar-13052991.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rimal 3, Rimal, Jumeirah Beach Residence, Dubai</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>800,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5,903 sqft</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-jumeirah-beach-residence-rimal-rimal-3-12679413.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Marina Terrace, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>825,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5,481 sqft</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-marina-terrace-12648868.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>The Address Residence Fountain Views 2, The Address Residence Fountain Views, Downtown Dubai, Dubai</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>890,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2,454 sqft</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-downtown-dubai-the-address-residence-fountain-views-the-address-residence-fountain-views-2-12683145.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Balqis Residence, Kingdom of Sheba, Palm Jumeirah, Dubai</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>899,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6,270 sqft</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-palm-jumeirah-kingdom-of-sheba-balqis-residence-13005435.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Marina Gate 1, Marina Gate, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>900,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3,744 sqft</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-marina-gate-marina-gate-1-13130212.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>La Vie, Jumeirah Beach Residence, Dubai</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1,000,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3,046 sqft</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-jumeirah-beach-residence-la-vie-13098639.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>The Address Residence Fountain Views 2, The Address Residence Fountain Views, Downtown Dubai, Dubai</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1,200,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2,731 sqft</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-downtown-dubai-the-address-residence-fountain-views-the-address-residence-fountain-views-2-13096137.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Apartment Building 5, Bluewaters Residences, Bluewaters, Dubai</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1,400,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2,458 sqft</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-bluewaters-bluewaters-residences-apartment-building-5-12136904.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Apartment Building 5, Bluewaters Residences, Bluewaters, Dubai</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1,600,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2,458 sqft</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-bluewaters-bluewaters-residences-apartment-building-5-13156754.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jumeirah Living Marina Gate, Marina Gate, Dubai Marina, Dubai</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1,825,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>6,396 sqft</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-dubai-marina-marina-gate-jumeirah-living-marina-gate-12988548.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>IL Primo, Opera District, Downtown Dubai, Dubai</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2,500,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5,300 sqft</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-downtown-dubai-opera-district-il-primo-12987255.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Palme Couture, Palm Jumeirah, Dubai</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2,500,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>6,840 sqft</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/apartment-for-rent-dubai-palm-jumeirah-palme-couture-13140819.html</t>
         </is>
       </c>
     </row>
